--- a/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
@@ -40,7 +40,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0711_5_0718_7</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="10">
   <si>
     <t>rnaDate</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>s1cDNADate</t>
+  </si>
+  <si>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
     <t>s1cDNASampleNumber</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,752 +423,887 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
     </row>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_0711_5_0718_7.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">s1cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNAProtocol </t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">02.08.12</t>
@@ -174,8 +174,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
